--- a/BSPthread/BSPthread.xlsx
+++ b/BSPthread/BSPthread.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Projects/Waterrockets/Bottle2GardenaAdapterWithFins/BSPthread/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D6C33-DC23-2B41-98BE-3E4B45D3B41A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2432B-87F7-2541-BB0C-32F1685F3B48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="460" windowWidth="26040" windowHeight="21140" xr2:uid="{46C58C85-D7E3-B144-AD74-40B7546B4D31}"/>
+    <workbookView xWindow="14520" yWindow="460" windowWidth="23880" windowHeight="21140" xr2:uid="{46C58C85-D7E3-B144-AD74-40B7546B4D31}"/>
   </bookViews>
   <sheets>
     <sheet name="BSPP thread" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <definedName name="cinternal">'BSPP thread'!$R$1</definedName>
     <definedName name="deg">meta!$B$2</definedName>
     <definedName name="phi">meta!$B$3</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'BSPP thread'!$R$1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'BSPP thread'!$Y$1</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'BSPP thread'!$R$1</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'BSPP thread'!$R$1</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'BSPP thread'!$Y$1</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'BSPP thread'!$Y$1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -36,7 +36,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'BSPP thread'!$P$27</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'BSPP thread'!$Y$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -215,7 +215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,6 +744,16 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,16 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -957,7 +957,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Dminor for internal:</a:t>
+            <a:t>Dminor for external:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1283,11 +1283,11 @@
   <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O3" sqref="O3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -1312,52 +1312,52 @@
     <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:25" ht="17" thickBot="1">
+      <c r="A1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="57" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="57" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="59"/>
+      <c r="K1" s="63"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="63">
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="54">
         <v>0.27205047575333813</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="63">
-        <v>0.24522234485775363</v>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="54">
+        <v>0.29097758142887981</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="110" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="110" thickBot="1">
       <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0.14099956301655503</v>
       </c>
       <c r="Q3" s="44">
-        <f>M3+C3*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" ref="Q3:Q26" si="1">M3+C3*5/12/TAN(phi/2)*1.05</f>
         <v>7.9577697202587458</v>
       </c>
       <c r="R3" s="33" t="b">
@@ -1490,31 +1490,31 @@
         <v>1</v>
       </c>
       <c r="T3" s="32">
-        <f t="shared" ref="T3:T26" si="1">$E3+0.5*$F3</f>
-        <v>7.1955</v>
+        <f>$E3+0.5*$G3</f>
+        <v>7.0885000000000007</v>
       </c>
       <c r="U3" s="49">
-        <f>MIN(T3-(E3+G3), E3-T3)/G3</f>
+        <f>-MIN(T3-(E3+G3), E3-T3)/G3</f>
         <v>0.49999999999999684</v>
       </c>
       <c r="V3" s="32">
-        <f>T3-C3*5/12/TAN(phi/2)*1.05</f>
-        <v>6.4332302797412542</v>
+        <f t="shared" ref="V3:V26" si="2">T3-C3*5/12/TAN(phi/2)*1.05</f>
+        <v>6.3262302797412548</v>
       </c>
       <c r="W3" s="38" t="b">
         <f>V3&lt;=H3</f>
         <v>1</v>
       </c>
       <c r="X3" s="44">
-        <f t="shared" ref="X3:X26" si="2">T3+C3*2*cexternal</f>
-        <v>7.6403333335719648</v>
+        <f t="shared" ref="X3:X26" si="3">T3+C3*2*cexternal</f>
+        <v>7.6163333327119886</v>
       </c>
       <c r="Y3" s="39">
         <f>MIN(X3-(J3+K3), J3-X3)</f>
-        <v>8.2666666428035107E-2</v>
+        <v>0.10666666728801122</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.107</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G26" si="3">-F4</f>
+        <f t="shared" ref="G4:G26" si="4">-F4</f>
         <v>-0.107</v>
       </c>
       <c r="H4" s="15">
@@ -1551,11 +1551,11 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="34">
-        <f t="shared" ref="M4:M26" si="4">$E4+0.5*$F4</f>
+        <f t="shared" ref="M4:M26" si="5">$E4+0.5*$F4</f>
         <v>9.2004999999999999</v>
       </c>
       <c r="N4" s="50">
-        <f t="shared" ref="N4:N26" si="5">MIN(M4-E4,E4+F4-M4)/F4</f>
+        <f t="shared" ref="N4:N26" si="6">MIN(M4-E4,E4+F4-M4)/F4</f>
         <v>0.49999999999999684</v>
       </c>
       <c r="O4" s="34">
@@ -1563,43 +1563,43 @@
         <v>8.7070004369834439</v>
       </c>
       <c r="P4" s="40">
-        <f t="shared" ref="P4:P26" si="6">MIN(O4-H4, H4+I4-O4)</f>
+        <f t="shared" ref="P4:P26" si="7">MIN(O4-H4, H4+I4-O4)</f>
         <v>0.14099956301655681</v>
       </c>
       <c r="Q4" s="45">
-        <f>M4+C4*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>9.9627697202587449</v>
       </c>
       <c r="R4" s="35" t="b">
-        <f t="shared" ref="R4:R26" si="7">Q4&gt;=J4</f>
+        <f t="shared" ref="R4:R26" si="8">Q4&gt;=J4</f>
         <v>1</v>
       </c>
       <c r="T4" s="34">
-        <f t="shared" si="1"/>
-        <v>9.2004999999999999</v>
+        <f t="shared" ref="T4:T26" si="9">$E4+0.5*$G4</f>
+        <v>9.0935000000000006</v>
       </c>
       <c r="U4" s="50">
-        <f t="shared" ref="U4:U26" si="8">MIN(T4-(E4+G4), E4-T4)/G4</f>
+        <f t="shared" ref="U4:U26" si="10">-MIN(T4-(E4+G4), E4-T4)/G4</f>
         <v>0.49999999999999684</v>
       </c>
       <c r="V4" s="34">
-        <f>T4-C4*5/12/TAN(phi/2)*1.05</f>
-        <v>8.4382302797412549</v>
+        <f t="shared" si="2"/>
+        <v>8.3312302797412556</v>
       </c>
       <c r="W4" s="52" t="b">
-        <f t="shared" ref="W4:W26" si="9">V4&lt;=H4</f>
+        <f t="shared" ref="W4:W26" si="11">V4&lt;=H4</f>
         <v>1</v>
       </c>
       <c r="X4" s="45">
-        <f t="shared" si="2"/>
-        <v>9.6453333335719655</v>
+        <f t="shared" si="3"/>
+        <v>9.6213333327119877</v>
       </c>
       <c r="Y4" s="40">
-        <f t="shared" ref="Y4:Y26" si="10">MIN(X4-(J4+K4), J4-X4)</f>
-        <v>8.2666666428034219E-2</v>
+        <f t="shared" ref="Y4:Y26" si="12">MIN(X4-(J4+K4), J4-X4)</f>
+        <v>0.10666666728801211</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0.125</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.125</v>
       </c>
       <c r="H5" s="15">
@@ -1636,11 +1636,11 @@
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.3635</v>
       </c>
       <c r="N5" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="O5" s="34">
@@ -1648,43 +1648,43 @@
         <v>11.636037027835574</v>
       </c>
       <c r="P5" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19103702783557353</v>
       </c>
       <c r="Q5" s="45">
-        <f>M5+C5*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>13.487154482895196</v>
       </c>
       <c r="R5" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T5" s="34">
-        <f t="shared" si="1"/>
-        <v>12.3635</v>
+        <f t="shared" si="9"/>
+        <v>12.2385</v>
       </c>
       <c r="U5" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="V5" s="34">
-        <f>T5-C5*5/12/TAN(phi/2)*1.05</f>
-        <v>11.239845517104804</v>
+        <f t="shared" si="2"/>
+        <v>11.114845517104804</v>
       </c>
       <c r="W5" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X5" s="45">
-        <f t="shared" si="2"/>
-        <v>13.019224550149634</v>
+        <f t="shared" si="3"/>
+        <v>13.016574052740825</v>
       </c>
       <c r="Y5" s="40">
-        <f t="shared" si="10"/>
-        <v>0.11222455014963373</v>
+        <f t="shared" si="12"/>
+        <v>0.10957405274082532</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.125</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.125</v>
       </c>
       <c r="H6" s="15">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.868499999999999</v>
       </c>
       <c r="N6" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="O6" s="34">
@@ -1733,43 +1733,43 @@
         <v>15.141037027835573</v>
       </c>
       <c r="P6" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19103702783557353</v>
       </c>
       <c r="Q6" s="45">
-        <f>M6+C6*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>16.992154482895195</v>
       </c>
       <c r="R6" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T6" s="34">
-        <f t="shared" si="1"/>
-        <v>15.868499999999999</v>
+        <f t="shared" si="9"/>
+        <v>15.743499999999999</v>
       </c>
       <c r="U6" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="V6" s="34">
-        <f>T6-C6*5/12/TAN(phi/2)*1.05</f>
-        <v>14.744845517104803</v>
+        <f t="shared" si="2"/>
+        <v>14.619845517104803</v>
       </c>
       <c r="W6" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X6" s="45">
-        <f t="shared" si="2"/>
-        <v>16.524224550149633</v>
+        <f t="shared" si="3"/>
+        <v>16.521574052740824</v>
       </c>
       <c r="Y6" s="40">
-        <f t="shared" si="10"/>
-        <v>0.11222455014963373</v>
+        <f t="shared" si="12"/>
+        <v>0.10957405274082532</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.14199999999999999</v>
       </c>
       <c r="H7" s="15">
@@ -1806,11 +1806,11 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.864000000000001</v>
       </c>
       <c r="N7" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999998562</v>
       </c>
       <c r="O7" s="34">
@@ -1818,43 +1818,43 @@
         <v>18.877000873966889</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24600087396688863</v>
       </c>
       <c r="Q7" s="45">
-        <f>M7+C7*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>21.388539440517491</v>
       </c>
       <c r="R7" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T7" s="34">
-        <f t="shared" si="1"/>
-        <v>19.864000000000001</v>
+        <f t="shared" si="9"/>
+        <v>19.721999999999998</v>
       </c>
       <c r="U7" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001066</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999998562</v>
       </c>
       <c r="V7" s="34">
-        <f>T7-C7*5/12/TAN(phi/2)*1.05</f>
-        <v>18.339460559482511</v>
+        <f t="shared" si="2"/>
+        <v>18.197460559482508</v>
       </c>
       <c r="W7" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X7" s="45">
-        <f t="shared" si="2"/>
-        <v>20.753666667143932</v>
+        <f t="shared" si="3"/>
+        <v>20.777666665423972</v>
       </c>
       <c r="Y7" s="40">
-        <f t="shared" si="10"/>
-        <v>8.2666667143932671E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10666666542397252</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.14199999999999999</v>
       </c>
       <c r="H8" s="15">
@@ -1891,11 +1891,11 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.82</v>
       </c>
       <c r="N8" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999998562</v>
       </c>
       <c r="O8" s="34">
@@ -1903,43 +1903,43 @@
         <v>20.833000873966888</v>
       </c>
       <c r="P8" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24600087396688863</v>
       </c>
       <c r="Q8" s="45">
-        <f>M8+C8*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>23.344539440517494</v>
       </c>
       <c r="R8" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T8" s="34">
-        <f t="shared" si="1"/>
-        <v>21.82</v>
+        <f t="shared" si="9"/>
+        <v>21.677999999999997</v>
       </c>
       <c r="U8" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001066</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999998562</v>
       </c>
       <c r="V8" s="34">
-        <f>T8-C8*5/12/TAN(phi/2)*1.05</f>
-        <v>20.295460559482507</v>
+        <f t="shared" si="2"/>
+        <v>20.153460559482504</v>
       </c>
       <c r="W8" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X8" s="45">
-        <f t="shared" si="2"/>
-        <v>22.709666667143932</v>
+        <f t="shared" si="3"/>
+        <v>22.733666665423975</v>
       </c>
       <c r="Y8" s="40">
-        <f t="shared" si="10"/>
-        <v>8.2666667143929118E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10666666542397252</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.14199999999999999</v>
       </c>
       <c r="H9" s="15">
@@ -1976,11 +1976,11 @@
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.35</v>
       </c>
       <c r="N9" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999998562</v>
       </c>
       <c r="O9" s="34">
@@ -1988,43 +1988,43 @@
         <v>24.36300087396689</v>
       </c>
       <c r="P9" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24600087396688863</v>
       </c>
       <c r="Q9" s="45">
-        <f>M9+C9*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>26.874539440517495</v>
       </c>
       <c r="R9" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T9" s="34">
-        <f t="shared" si="1"/>
-        <v>25.35</v>
+        <f t="shared" si="9"/>
+        <v>25.207999999999998</v>
       </c>
       <c r="U9" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001066</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999998562</v>
       </c>
       <c r="V9" s="34">
-        <f>T9-C9*5/12/TAN(phi/2)*1.05</f>
-        <v>23.825460559482508</v>
+        <f t="shared" si="2"/>
+        <v>23.683460559482505</v>
       </c>
       <c r="W9" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X9" s="45">
-        <f t="shared" si="2"/>
-        <v>26.239666667143933</v>
+        <f t="shared" si="3"/>
+        <v>26.263666665423976</v>
       </c>
       <c r="Y9" s="40">
-        <f t="shared" si="10"/>
-        <v>8.2666667143932671E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10666666542397607</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.14199999999999999</v>
       </c>
       <c r="H10" s="15">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.110000000000003</v>
       </c>
       <c r="N10" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999998562</v>
       </c>
       <c r="O10" s="34">
@@ -2073,43 +2073,43 @@
         <v>28.123000873966891</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.24600087396689219</v>
       </c>
       <c r="Q10" s="45">
-        <f>M10+C10*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>30.634539440517493</v>
       </c>
       <c r="R10" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T10" s="34">
-        <f t="shared" si="1"/>
-        <v>29.110000000000003</v>
+        <f t="shared" si="9"/>
+        <v>28.968</v>
       </c>
       <c r="U10" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001066</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999998562</v>
       </c>
       <c r="V10" s="34">
-        <f>T10-C10*5/12/TAN(phi/2)*1.05</f>
-        <v>27.585460559482513</v>
+        <f t="shared" si="2"/>
+        <v>27.44346055948251</v>
       </c>
       <c r="W10" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X10" s="45">
-        <f t="shared" si="2"/>
-        <v>29.999666667143934</v>
+        <f t="shared" si="3"/>
+        <v>30.023666665423974</v>
       </c>
       <c r="Y10" s="40">
-        <f t="shared" si="10"/>
-        <v>8.2666667143932671E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10666666542397252</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0.18</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H11" s="15">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.86</v>
       </c>
       <c r="N11" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999999922</v>
       </c>
       <c r="O11" s="34">
@@ -2158,43 +2158,43 @@
         <v>30.603670902971082</v>
       </c>
       <c r="P11" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297108169</v>
       </c>
       <c r="Q11" s="45">
-        <f>M11+C11*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>33.800552132389683</v>
       </c>
       <c r="R11" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T11" s="34">
-        <f t="shared" si="1"/>
-        <v>31.86</v>
+        <f t="shared" si="9"/>
+        <v>31.68</v>
       </c>
       <c r="U11" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49999999999999922</v>
       </c>
       <c r="V11" s="34">
-        <f>T11-C11*5/12/TAN(phi/2)*1.05</f>
-        <v>29.919447867610316</v>
+        <f t="shared" si="2"/>
+        <v>29.739447867610316</v>
       </c>
       <c r="W11" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X11" s="45">
-        <f t="shared" si="2"/>
-        <v>32.992436788553107</v>
+        <f t="shared" si="3"/>
+        <v>33.023734471038566</v>
       </c>
       <c r="Y11" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855310401</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0.18</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H12" s="15">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.508000000000003</v>
       </c>
       <c r="N12" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999997952</v>
       </c>
       <c r="O12" s="34">
@@ -2243,43 +2243,43 @@
         <v>35.251670902971085</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297108524</v>
       </c>
       <c r="Q12" s="45">
-        <f>M12+C12*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>38.448552132389686</v>
       </c>
       <c r="R12" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T12" s="34">
-        <f t="shared" si="1"/>
-        <v>36.508000000000003</v>
+        <f t="shared" si="9"/>
+        <v>36.327999999999996</v>
       </c>
       <c r="U12" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001898</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999997952</v>
       </c>
       <c r="V12" s="34">
-        <f>T12-C12*5/12/TAN(phi/2)*1.05</f>
-        <v>34.567447867610319</v>
+        <f t="shared" si="2"/>
+        <v>34.387447867610312</v>
       </c>
       <c r="W12" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X12" s="45">
-        <f t="shared" si="2"/>
-        <v>37.64043678855311</v>
+        <f t="shared" si="3"/>
+        <v>37.671734471038562</v>
       </c>
       <c r="Y12" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855311111</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.18</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H13" s="15">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.521000000000001</v>
       </c>
       <c r="N13" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999997952</v>
       </c>
       <c r="O13" s="34">
@@ -2328,43 +2328,43 @@
         <v>39.264670902971083</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297108524</v>
       </c>
       <c r="Q13" s="45">
-        <f>M13+C13*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>42.461552132389684</v>
       </c>
       <c r="R13" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T13" s="34">
-        <f t="shared" si="1"/>
-        <v>40.521000000000001</v>
+        <f t="shared" si="9"/>
+        <v>40.340999999999994</v>
       </c>
       <c r="U13" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001898</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999997952</v>
       </c>
       <c r="V13" s="34">
-        <f>T13-C13*5/12/TAN(phi/2)*1.05</f>
-        <v>38.580447867610317</v>
+        <f t="shared" si="2"/>
+        <v>38.40044786761031</v>
       </c>
       <c r="W13" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X13" s="45">
-        <f t="shared" si="2"/>
-        <v>41.653436788553108</v>
+        <f t="shared" si="3"/>
+        <v>41.68473447103856</v>
       </c>
       <c r="Y13" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855311111</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.18</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H14" s="15">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46.414000000000001</v>
       </c>
       <c r="N14" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999997952</v>
       </c>
       <c r="O14" s="34">
@@ -2413,43 +2413,43 @@
         <v>45.157670902971084</v>
       </c>
       <c r="P14" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297108524</v>
       </c>
       <c r="Q14" s="45">
-        <f>M14+C14*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>48.354552132389685</v>
       </c>
       <c r="R14" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T14" s="34">
-        <f t="shared" si="1"/>
-        <v>46.414000000000001</v>
+        <f t="shared" si="9"/>
+        <v>46.233999999999995</v>
       </c>
       <c r="U14" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001898</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999997952</v>
       </c>
       <c r="V14" s="34">
-        <f>T14-C14*5/12/TAN(phi/2)*1.05</f>
-        <v>44.473447867610318</v>
+        <f t="shared" si="2"/>
+        <v>44.293447867610311</v>
       </c>
       <c r="W14" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X14" s="45">
-        <f t="shared" si="2"/>
-        <v>47.546436788553109</v>
+        <f t="shared" si="3"/>
+        <v>47.577734471038561</v>
       </c>
       <c r="Y14" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855311111</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0.18</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H15" s="15">
@@ -2486,11 +2486,11 @@
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.357000000000006</v>
       </c>
       <c r="N15" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999997952</v>
       </c>
       <c r="O15" s="34">
@@ -2498,43 +2498,43 @@
         <v>51.100670902971089</v>
       </c>
       <c r="P15" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297109235</v>
       </c>
       <c r="Q15" s="45">
-        <f>M15+C15*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>54.29755213238969</v>
       </c>
       <c r="R15" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T15" s="34">
-        <f t="shared" si="1"/>
-        <v>52.357000000000006</v>
+        <f t="shared" si="9"/>
+        <v>52.177</v>
       </c>
       <c r="U15" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001898</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999997952</v>
       </c>
       <c r="V15" s="34">
-        <f>T15-C15*5/12/TAN(phi/2)*1.05</f>
-        <v>50.416447867610323</v>
+        <f t="shared" si="2"/>
+        <v>50.236447867610316</v>
       </c>
       <c r="W15" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X15" s="45">
-        <f t="shared" si="2"/>
-        <v>53.489436788553114</v>
+        <f t="shared" si="3"/>
+        <v>53.520734471038566</v>
       </c>
       <c r="Y15" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855311111</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.18</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="H16" s="15">
@@ -2571,11 +2571,11 @@
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.225000000000001</v>
       </c>
       <c r="N16" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999997952</v>
       </c>
       <c r="O16" s="34">
@@ -2583,43 +2583,43 @@
         <v>56.968670902971084</v>
       </c>
       <c r="P16" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.31267090297108524</v>
       </c>
       <c r="Q16" s="45">
-        <f>M16+C16*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>60.165552132389685</v>
       </c>
       <c r="R16" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T16" s="34">
-        <f t="shared" si="1"/>
-        <v>58.225000000000001</v>
+        <f t="shared" si="9"/>
+        <v>58.044999999999995</v>
       </c>
       <c r="U16" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000001898</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999997952</v>
       </c>
       <c r="V16" s="34">
-        <f>T16-C16*5/12/TAN(phi/2)*1.05</f>
-        <v>56.284447867610318</v>
+        <f t="shared" si="2"/>
+        <v>56.104447867610311</v>
       </c>
       <c r="W16" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X16" s="45">
-        <f t="shared" si="2"/>
-        <v>59.357436788553109</v>
+        <f t="shared" si="3"/>
+        <v>59.388734471038561</v>
       </c>
       <c r="Y16" s="40">
-        <f t="shared" si="10"/>
-        <v>0.10343678855311111</v>
+        <f t="shared" si="12"/>
+        <v>0.13473447103856273</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0.217</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H17" s="15">
@@ -2656,11 +2656,11 @@
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.339500000000001</v>
       </c>
       <c r="N17" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O17" s="34">
@@ -2668,43 +2668,43 @@
         <v>63.083170902971084</v>
       </c>
       <c r="P17" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702891936</v>
       </c>
       <c r="Q17" s="45">
-        <f>M17+C17*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>66.280052132389685</v>
       </c>
       <c r="R17" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T17" s="34">
-        <f t="shared" si="1"/>
-        <v>64.339500000000001</v>
+        <f t="shared" si="9"/>
+        <v>64.122499999999988</v>
       </c>
       <c r="U17" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V17" s="34">
-        <f>T17-C17*5/12/TAN(phi/2)*1.05</f>
-        <v>62.398947867610318</v>
+        <f t="shared" si="2"/>
+        <v>62.181947867610305</v>
       </c>
       <c r="W17" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X17" s="45">
-        <f t="shared" si="2"/>
-        <v>65.471936788553108</v>
+        <f t="shared" si="3"/>
+        <v>65.466234471038561</v>
       </c>
       <c r="Y17" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>0.217</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H18" s="15">
@@ -2741,11 +2741,11 @@
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.813500000000005</v>
       </c>
       <c r="N18" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O18" s="34">
@@ -2753,43 +2753,43 @@
         <v>72.557170902971095</v>
       </c>
       <c r="P18" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q18" s="45">
-        <f>M18+C18*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>75.754052132389688</v>
       </c>
       <c r="R18" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T18" s="34">
-        <f t="shared" si="1"/>
-        <v>73.813500000000005</v>
+        <f t="shared" si="9"/>
+        <v>73.596499999999992</v>
       </c>
       <c r="U18" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V18" s="34">
-        <f>T18-C18*5/12/TAN(phi/2)*1.05</f>
-        <v>71.872947867610321</v>
+        <f t="shared" si="2"/>
+        <v>71.655947867610308</v>
       </c>
       <c r="W18" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X18" s="45">
-        <f t="shared" si="2"/>
-        <v>74.945936788553112</v>
+        <f t="shared" si="3"/>
+        <v>74.940234471038565</v>
       </c>
       <c r="Y18" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.217</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H19" s="15">
@@ -2826,11 +2826,11 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.163500000000013</v>
       </c>
       <c r="N19" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O19" s="34">
@@ -2838,43 +2838,43 @@
         <v>78.907170902971103</v>
       </c>
       <c r="P19" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702889094</v>
       </c>
       <c r="Q19" s="45">
-        <f>M19+C19*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>82.104052132389697</v>
       </c>
       <c r="R19" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T19" s="34">
-        <f t="shared" si="1"/>
-        <v>80.163500000000013</v>
+        <f t="shared" si="9"/>
+        <v>79.9465</v>
       </c>
       <c r="U19" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V19" s="34">
-        <f>T19-C19*5/12/TAN(phi/2)*1.05</f>
-        <v>78.22294786761033</v>
+        <f t="shared" si="2"/>
+        <v>78.005947867610317</v>
       </c>
       <c r="W19" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X19" s="45">
-        <f t="shared" si="2"/>
-        <v>81.295936788553121</v>
+        <f t="shared" si="3"/>
+        <v>81.290234471038573</v>
       </c>
       <c r="Y19" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>0.217</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H20" s="15">
@@ -2911,11 +2911,11 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.513500000000008</v>
       </c>
       <c r="N20" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O20" s="34">
@@ -2923,43 +2923,43 @@
         <v>85.257170902971097</v>
       </c>
       <c r="P20" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q20" s="45">
-        <f>M20+C20*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>88.454052132389691</v>
       </c>
       <c r="R20" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T20" s="34">
-        <f t="shared" si="1"/>
-        <v>86.513500000000008</v>
+        <f t="shared" si="9"/>
+        <v>86.296499999999995</v>
       </c>
       <c r="U20" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V20" s="34">
-        <f>T20-C20*5/12/TAN(phi/2)*1.05</f>
-        <v>84.572947867610324</v>
+        <f t="shared" si="2"/>
+        <v>84.355947867610311</v>
       </c>
       <c r="W20" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X20" s="45">
-        <f t="shared" si="2"/>
-        <v>87.645936788553115</v>
+        <f t="shared" si="3"/>
+        <v>87.640234471038568</v>
       </c>
       <c r="Y20" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0.217</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H21" s="15">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.959500000000006</v>
       </c>
       <c r="N21" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O21" s="34">
@@ -3008,43 +3008,43 @@
         <v>97.703170902971095</v>
       </c>
       <c r="P21" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q21" s="45">
-        <f>M21+C21*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>100.90005213238969</v>
       </c>
       <c r="R21" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T21" s="34">
-        <f t="shared" si="1"/>
-        <v>98.959500000000006</v>
+        <f t="shared" si="9"/>
+        <v>98.742499999999993</v>
       </c>
       <c r="U21" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V21" s="34">
-        <f>T21-C21*5/12/TAN(phi/2)*1.05</f>
-        <v>97.018947867610322</v>
+        <f t="shared" si="2"/>
+        <v>96.801947867610309</v>
       </c>
       <c r="W21" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X21" s="45">
-        <f t="shared" si="2"/>
-        <v>100.09193678855311</v>
+        <f t="shared" si="3"/>
+        <v>100.08623447103857</v>
       </c>
       <c r="Y21" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.217</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H22" s="15">
@@ -3081,11 +3081,11 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111.65950000000001</v>
       </c>
       <c r="N22" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O22" s="34">
@@ -3093,43 +3093,43 @@
         <v>110.4031709029711</v>
       </c>
       <c r="P22" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q22" s="45">
-        <f>M22+C22*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>113.60005213238969</v>
       </c>
       <c r="R22" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T22" s="34">
-        <f t="shared" si="1"/>
-        <v>111.65950000000001</v>
+        <f t="shared" si="9"/>
+        <v>111.4425</v>
       </c>
       <c r="U22" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V22" s="34">
-        <f>T22-C22*5/12/TAN(phi/2)*1.05</f>
-        <v>109.71894786761032</v>
+        <f t="shared" si="2"/>
+        <v>109.50194786761031</v>
       </c>
       <c r="W22" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X22" s="45">
-        <f t="shared" si="2"/>
-        <v>112.79193678855312</v>
+        <f t="shared" si="3"/>
+        <v>112.78623447103857</v>
       </c>
       <c r="Y22" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0.217</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H23" s="15">
@@ -3166,11 +3166,11 @@
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124.35950000000001</v>
       </c>
       <c r="N23" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O23" s="34">
@@ -3178,43 +3178,43 @@
         <v>123.1031709029711</v>
       </c>
       <c r="P23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q23" s="45">
-        <f>M23+C23*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>126.30005213238969</v>
       </c>
       <c r="R23" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T23" s="34">
-        <f t="shared" si="1"/>
-        <v>124.35950000000001</v>
+        <f t="shared" si="9"/>
+        <v>124.1425</v>
       </c>
       <c r="U23" s="50">
-        <f t="shared" si="8"/>
-        <v>0.50000000000002986</v>
+        <f t="shared" si="10"/>
+        <v>0.49999999999996436</v>
       </c>
       <c r="V23" s="34">
-        <f>T23-C23*5/12/TAN(phi/2)*1.05</f>
-        <v>122.41894786761033</v>
+        <f t="shared" si="2"/>
+        <v>122.20194786761031</v>
       </c>
       <c r="W23" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X23" s="45">
-        <f t="shared" si="2"/>
-        <v>125.49193678855312</v>
+        <f t="shared" si="3"/>
+        <v>125.48623447103857</v>
       </c>
       <c r="Y23" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855311225</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0.217</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H24" s="15">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.05949999999999</v>
       </c>
       <c r="N24" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O24" s="34">
@@ -3263,43 +3263,43 @@
         <v>135.80317090297106</v>
       </c>
       <c r="P24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702893357</v>
       </c>
       <c r="Q24" s="45">
-        <f>M24+C24*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>139.00005213238967</v>
       </c>
       <c r="R24" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T24" s="34">
-        <f t="shared" si="1"/>
-        <v>137.05949999999999</v>
+        <f t="shared" si="9"/>
+        <v>136.8425</v>
       </c>
       <c r="U24" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="V24" s="34">
-        <f>T24-C24*5/12/TAN(phi/2)*1.05</f>
-        <v>135.1189478676103</v>
+        <f t="shared" si="2"/>
+        <v>134.90194786761032</v>
       </c>
       <c r="W24" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X24" s="45">
-        <f t="shared" si="2"/>
-        <v>138.19193678855308</v>
+        <f t="shared" si="3"/>
+        <v>138.18623447103857</v>
       </c>
       <c r="Y24" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855306962</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.217</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H25" s="15">
@@ -3336,11 +3336,11 @@
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149.7595</v>
       </c>
       <c r="N25" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O25" s="34">
@@ -3348,43 +3348,43 @@
         <v>148.50317090297108</v>
       </c>
       <c r="P25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702890515</v>
       </c>
       <c r="Q25" s="45">
-        <f>M25+C25*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>151.70005213238969</v>
       </c>
       <c r="R25" s="35" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T25" s="34">
-        <f t="shared" si="1"/>
-        <v>149.7595</v>
+        <f t="shared" si="9"/>
+        <v>149.54250000000002</v>
       </c>
       <c r="U25" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="V25" s="34">
-        <f>T25-C25*5/12/TAN(phi/2)*1.05</f>
-        <v>147.81894786761032</v>
+        <f t="shared" si="2"/>
+        <v>147.60194786761033</v>
       </c>
       <c r="W25" s="52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X25" s="45">
-        <f t="shared" si="2"/>
-        <v>150.8919367885531</v>
+        <f t="shared" si="3"/>
+        <v>150.88623447103859</v>
       </c>
       <c r="Y25" s="40">
-        <f t="shared" si="10"/>
-        <v>0.19593678855309804</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103859326</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="17" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0.217</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.217</v>
       </c>
       <c r="H26" s="16">
@@ -3421,11 +3421,11 @@
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162.45949999999999</v>
       </c>
       <c r="N26" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="O26" s="36">
@@ -3433,43 +3433,43 @@
         <v>161.20317090297107</v>
       </c>
       <c r="P26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30882909702893357</v>
       </c>
       <c r="Q26" s="46">
-        <f>M26+C26*5/12/TAN(phi/2)*1.05</f>
+        <f t="shared" si="1"/>
         <v>164.40005213238967</v>
       </c>
       <c r="R26" s="37" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T26" s="36">
-        <f t="shared" si="1"/>
-        <v>162.45949999999999</v>
+        <f t="shared" si="9"/>
+        <v>162.24250000000001</v>
       </c>
       <c r="U26" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49999999999996436</v>
       </c>
       <c r="V26" s="36">
-        <f>T26-C26*5/12/TAN(phi/2)*1.05</f>
-        <v>160.51894786761031</v>
+        <f t="shared" si="2"/>
+        <v>160.30194786761032</v>
       </c>
       <c r="W26" s="53" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X26" s="46">
-        <f t="shared" si="2"/>
-        <v>163.59193678855308</v>
+        <f t="shared" si="3"/>
+        <v>163.58623447103858</v>
       </c>
       <c r="Y26" s="41">
-        <f t="shared" si="10"/>
-        <v>0.19593678855306962</v>
+        <f t="shared" si="12"/>
+        <v>0.19023447103856483</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25">
       <c r="M27" t="s">
         <v>45</v>
       </c>
@@ -3498,10 +3498,10 @@
       </c>
       <c r="Y27" s="42">
         <f>MIN(Y3:Y26)</f>
-        <v>8.2666666428034219E-2</v>
+        <v>0.10666666542397252</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25">
       <c r="N28" s="30"/>
       <c r="R28" s="31"/>
     </row>
@@ -3531,9 +3531,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>34</v>
       </c>

--- a/BSPthread/BSPthread.xlsx
+++ b/BSPthread/BSPthread.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/Projects/Waterrockets/Bottle2GardenaAdapterWithFins/BSPthread/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2432B-87F7-2541-BB0C-32F1685F3B48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E46F0898-C66F-4341-9A5F-FF07F515C0EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="460" windowWidth="23880" windowHeight="21140" xr2:uid="{46C58C85-D7E3-B144-AD74-40B7546B4D31}"/>
+    <workbookView xWindow="19800" yWindow="460" windowWidth="18600" windowHeight="21140" activeTab="1" xr2:uid="{46C58C85-D7E3-B144-AD74-40B7546B4D31}"/>
   </bookViews>
   <sheets>
     <sheet name="BSPP thread" sheetId="1" r:id="rId1"/>
-    <sheet name="meta" sheetId="2" r:id="rId2"/>
+    <sheet name="THREAD_TABLE" sheetId="3" r:id="rId2"/>
+    <sheet name="meta" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="cexternal">'BSPP thread'!$Y$1</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Pitch (P)</t>
   </si>
@@ -206,6 +207,48 @@
   <si>
     <t>Margin</t>
   </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>z0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>Dsupport</t>
+  </si>
+  <si>
+    <t>THREAD_TABLE</t>
+  </si>
+  <si>
+    <t>UNITS: MM</t>
+  </si>
+  <si>
+    <t>Rrot</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -666,12 +709,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -772,6 +1008,56 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1282,9 +1568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4410726-507D-0E4E-8A5F-51222B2316ED}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P27" sqref="P27"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3524,6 +3810,2487 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD97861-A178-2F47-B44F-F4D36A633F45}">
+  <dimension ref="A1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="12" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" thickBot="1">
+      <c r="A1" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="17" thickBot="1">
+      <c r="A2" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="73" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A3,"-int")</f>
+        <v>G1/16-int</v>
+      </c>
+      <c r="B3" s="105">
+        <f>'BSPP thread'!C3</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C3" s="100">
+        <f>'BSPP thread'!$M3/2+5*$B3/(24*TAN(phi/2))*1.05</f>
+        <v>3.9788848601293729</v>
+      </c>
+      <c r="D3" s="99">
+        <f>'BSPP thread'!$M3+5*$B3/(12*TAN(phi/2))</f>
+        <v>7.9214711621511862</v>
+      </c>
+      <c r="E3" s="77">
+        <f>'BSPP thread'!$M3/2+5*$B3/(24*TAN(phi/2))*1.05-C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="78">
+        <f>0.46875*$B3</f>
+        <v>0.42515625000000001</v>
+      </c>
+      <c r="G3" s="78">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="78">
+        <f>-F3</f>
+        <v>-0.42515625000000001</v>
+      </c>
+      <c r="I3" s="78">
+        <f>'BSPP thread'!$M3/2-$B3*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C3</f>
+        <v>-0.56084140616326339</v>
+      </c>
+      <c r="J3" s="78">
+        <f>-0.13701*$B3</f>
+        <v>-0.12426806999999999</v>
+      </c>
+      <c r="K3" s="78">
+        <f>I3</f>
+        <v>-0.56084140616326339</v>
+      </c>
+      <c r="L3" s="79">
+        <f>-J3</f>
+        <v>0.12426806999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A4,"-int")</f>
+        <v>G1/8-int</v>
+      </c>
+      <c r="B4" s="68">
+        <f>'BSPP thread'!C4</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C4" s="101">
+        <f>'BSPP thread'!$M4/2+5*$B4/(24*TAN(phi/2))*1.05</f>
+        <v>4.9813848601293724</v>
+      </c>
+      <c r="D4" s="76">
+        <f>'BSPP thread'!$M4+5*$B4/(12*TAN(phi/2))</f>
+        <v>9.9264711621511861</v>
+      </c>
+      <c r="E4" s="68">
+        <f>'BSPP thread'!$M4/2+5*$B4/(24*TAN(phi/2))*1.05-C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
+        <f t="shared" ref="F4:F26" si="0">0.46875*$B4</f>
+        <v>0.42515625000000001</v>
+      </c>
+      <c r="G4" s="64">
+        <f t="shared" ref="G4:G26" si="1">E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="64">
+        <f t="shared" ref="H4:H26" si="2">-F4</f>
+        <v>-0.42515625000000001</v>
+      </c>
+      <c r="I4" s="64">
+        <f>'BSPP thread'!$M4/2-$B4*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C4</f>
+        <v>-0.56084140616326295</v>
+      </c>
+      <c r="J4" s="64">
+        <f t="shared" ref="J4:J26" si="3">-0.13701*$B4</f>
+        <v>-0.12426806999999999</v>
+      </c>
+      <c r="K4" s="64">
+        <f t="shared" ref="K4:K26" si="4">I4</f>
+        <v>-0.56084140616326295</v>
+      </c>
+      <c r="L4" s="69">
+        <f t="shared" ref="L4:L26" si="5">-J4</f>
+        <v>0.12426806999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A5,"-int")</f>
+        <v>G1/4-int</v>
+      </c>
+      <c r="B5" s="68">
+        <f>'BSPP thread'!C5</f>
+        <v>1.337</v>
+      </c>
+      <c r="C5" s="101">
+        <f>'BSPP thread'!$M5/2+5*$B5/(24*TAN(phi/2))*1.05</f>
+        <v>6.7435772414475981</v>
+      </c>
+      <c r="D5" s="76">
+        <f>'BSPP thread'!$M5+5*$B5/(12*TAN(phi/2))</f>
+        <v>13.433647126566854</v>
+      </c>
+      <c r="E5" s="68">
+        <f>'BSPP thread'!$M5/2+5*$B5/(24*TAN(phi/2))*1.05-C5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="64">
+        <f t="shared" si="0"/>
+        <v>0.62671874999999999</v>
+      </c>
+      <c r="G5" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.62671874999999999</v>
+      </c>
+      <c r="I5" s="64">
+        <f>'BSPP thread'!$M5/2-$B5*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C5</f>
+        <v>-0.82673093719987101</v>
+      </c>
+      <c r="J5" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.18318236999999998</v>
+      </c>
+      <c r="K5" s="64">
+        <f t="shared" si="4"/>
+        <v>-0.82673093719987101</v>
+      </c>
+      <c r="L5" s="69">
+        <f t="shared" si="5"/>
+        <v>0.18318236999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A6,"-int")</f>
+        <v>G3/8-int</v>
+      </c>
+      <c r="B6" s="68">
+        <f>'BSPP thread'!C6</f>
+        <v>1.337</v>
+      </c>
+      <c r="C6" s="101">
+        <f>'BSPP thread'!$M6/2+5*$B6/(24*TAN(phi/2))*1.05</f>
+        <v>8.4960772414475976</v>
+      </c>
+      <c r="D6" s="76">
+        <f>'BSPP thread'!$M6+5*$B6/(12*TAN(phi/2))</f>
+        <v>16.938647126566853</v>
+      </c>
+      <c r="E6" s="68">
+        <f>'BSPP thread'!$M6/2+5*$B6/(24*TAN(phi/2))*1.05-C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <f t="shared" si="0"/>
+        <v>0.62671874999999999</v>
+      </c>
+      <c r="G6" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.62671874999999999</v>
+      </c>
+      <c r="I6" s="64">
+        <f>'BSPP thread'!$M6/2-$B6*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C6</f>
+        <v>-0.82673093719987101</v>
+      </c>
+      <c r="J6" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.18318236999999998</v>
+      </c>
+      <c r="K6" s="64">
+        <f t="shared" si="4"/>
+        <v>-0.82673093719987101</v>
+      </c>
+      <c r="L6" s="69">
+        <f t="shared" si="5"/>
+        <v>0.18318236999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A7,"-int")</f>
+        <v>G1/2-int</v>
+      </c>
+      <c r="B7" s="68">
+        <f>'BSPP thread'!C7</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C7" s="101">
+        <f>'BSPP thread'!$M7/2+5*$B7/(24*TAN(phi/2))*1.05</f>
+        <v>10.694269720258745</v>
+      </c>
+      <c r="D7" s="76">
+        <f>'BSPP thread'!$M7+5*$B7/(12*TAN(phi/2))</f>
+        <v>21.315942324302373</v>
+      </c>
+      <c r="E7" s="68">
+        <f>'BSPP thread'!$M7/2+5*$B7/(24*TAN(phi/2))*1.05-C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="G7" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="I7" s="64">
+        <f>'BSPP thread'!$M7/2-$B7*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C7</f>
+        <v>-1.1216828123265259</v>
+      </c>
+      <c r="J7" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.24853613999999999</v>
+      </c>
+      <c r="K7" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.1216828123265259</v>
+      </c>
+      <c r="L7" s="69">
+        <f t="shared" si="5"/>
+        <v>0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A8,"-int")</f>
+        <v>G5/8-int</v>
+      </c>
+      <c r="B8" s="68">
+        <f>'BSPP thread'!C8</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C8" s="101">
+        <f>'BSPP thread'!$M8/2+5*$B8/(24*TAN(phi/2))*1.05</f>
+        <v>11.672269720258747</v>
+      </c>
+      <c r="D8" s="76">
+        <f>'BSPP thread'!$M8+5*$B8/(12*TAN(phi/2))</f>
+        <v>23.271942324302373</v>
+      </c>
+      <c r="E8" s="68">
+        <f>'BSPP thread'!$M8/2+5*$B8/(24*TAN(phi/2))*1.05-C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="64">
+        <f t="shared" si="0"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="G8" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="I8" s="64">
+        <f>'BSPP thread'!$M8/2-$B8*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C8</f>
+        <v>-1.1216828123265277</v>
+      </c>
+      <c r="J8" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.24853613999999999</v>
+      </c>
+      <c r="K8" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.1216828123265277</v>
+      </c>
+      <c r="L8" s="69">
+        <f t="shared" si="5"/>
+        <v>0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A9,"-int")</f>
+        <v>G3/4-int</v>
+      </c>
+      <c r="B9" s="68">
+        <f>'BSPP thread'!C9</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C9" s="101">
+        <f>'BSPP thread'!$M9/2+5*$B9/(24*TAN(phi/2))*1.05</f>
+        <v>13.437269720258747</v>
+      </c>
+      <c r="D9" s="76">
+        <f>'BSPP thread'!$M9+5*$B9/(12*TAN(phi/2))</f>
+        <v>26.801942324302374</v>
+      </c>
+      <c r="E9" s="68">
+        <f>'BSPP thread'!$M9/2+5*$B9/(24*TAN(phi/2))*1.05-C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="64">
+        <f t="shared" si="0"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="G9" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="I9" s="64">
+        <f>'BSPP thread'!$M9/2-$B9*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C9</f>
+        <v>-1.1216828123265277</v>
+      </c>
+      <c r="J9" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.24853613999999999</v>
+      </c>
+      <c r="K9" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.1216828123265277</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" si="5"/>
+        <v>0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A10,"-int")</f>
+        <v>G7/8-int</v>
+      </c>
+      <c r="B10" s="68">
+        <f>'BSPP thread'!C10</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C10" s="101">
+        <f>'BSPP thread'!$M10/2+5*$B10/(24*TAN(phi/2))*1.05</f>
+        <v>15.317269720258746</v>
+      </c>
+      <c r="D10" s="76">
+        <f>'BSPP thread'!$M10+5*$B10/(12*TAN(phi/2))</f>
+        <v>30.561942324302375</v>
+      </c>
+      <c r="E10" s="68">
+        <f>'BSPP thread'!$M10/2+5*$B10/(24*TAN(phi/2))*1.05-C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <f t="shared" si="0"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="G10" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="64">
+        <f t="shared" si="2"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="I10" s="64">
+        <f>'BSPP thread'!$M10/2-$B10*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C10</f>
+        <v>-1.1216828123265259</v>
+      </c>
+      <c r="J10" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.24853613999999999</v>
+      </c>
+      <c r="K10" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.1216828123265259</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="5"/>
+        <v>0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A11,"-int")</f>
+        <v>G1-int</v>
+      </c>
+      <c r="B11" s="68">
+        <f>'BSPP thread'!C11</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C11" s="101">
+        <f>'BSPP thread'!$M11/2+5*$B11/(24*TAN(phi/2))*1.05</f>
+        <v>16.900276066194841</v>
+      </c>
+      <c r="D11" s="76">
+        <f>'BSPP thread'!$M11+5*$B11/(12*TAN(phi/2))</f>
+        <v>33.708144887990173</v>
+      </c>
+      <c r="E11" s="68">
+        <f>'BSPP thread'!$M11/2+5*$B11/(24*TAN(phi/2))*1.05-C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G11" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I11" s="64">
+        <f>'BSPP thread'!$M11/2-$B11*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C11</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J11" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K11" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A12,"-int")</f>
+        <v>G1 1/8-int</v>
+      </c>
+      <c r="B12" s="68">
+        <f>'BSPP thread'!C12</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C12" s="101">
+        <f>'BSPP thread'!$M12/2+5*$B12/(24*TAN(phi/2))*1.05</f>
+        <v>19.224276066194843</v>
+      </c>
+      <c r="D12" s="76">
+        <f>'BSPP thread'!$M12+5*$B12/(12*TAN(phi/2))</f>
+        <v>38.356144887990176</v>
+      </c>
+      <c r="E12" s="68">
+        <f>'BSPP thread'!$M12/2+5*$B12/(24*TAN(phi/2))*1.05-C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G12" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I12" s="64">
+        <f>'BSPP thread'!$M12/2-$B12*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C12</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J12" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K12" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L12" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A13,"-int")</f>
+        <v>G1 1/4-int</v>
+      </c>
+      <c r="B13" s="68">
+        <f>'BSPP thread'!C13</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C13" s="101">
+        <f>'BSPP thread'!$M13/2+5*$B13/(24*TAN(phi/2))*1.05</f>
+        <v>21.230776066194842</v>
+      </c>
+      <c r="D13" s="76">
+        <f>'BSPP thread'!$M13+5*$B13/(12*TAN(phi/2))</f>
+        <v>42.369144887990174</v>
+      </c>
+      <c r="E13" s="68">
+        <f>'BSPP thread'!$M13/2+5*$B13/(24*TAN(phi/2))*1.05-C13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G13" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I13" s="64">
+        <f>'BSPP thread'!$M13/2-$B13*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C13</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J13" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K13" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L13" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A14,"-int")</f>
+        <v>G1 1/2-int</v>
+      </c>
+      <c r="B14" s="68">
+        <f>'BSPP thread'!C14</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C14" s="101">
+        <f>'BSPP thread'!$M14/2+5*$B14/(24*TAN(phi/2))*1.05</f>
+        <v>24.177276066194842</v>
+      </c>
+      <c r="D14" s="76">
+        <f>'BSPP thread'!$M14+5*$B14/(12*TAN(phi/2))</f>
+        <v>48.262144887990175</v>
+      </c>
+      <c r="E14" s="68">
+        <f>'BSPP thread'!$M14/2+5*$B14/(24*TAN(phi/2))*1.05-C14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G14" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I14" s="64">
+        <f>'BSPP thread'!$M14/2-$B14*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C14</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J14" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K14" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L14" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A15,"-int")</f>
+        <v>G1 3/4-int</v>
+      </c>
+      <c r="B15" s="68">
+        <f>'BSPP thread'!C15</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C15" s="101">
+        <f>'BSPP thread'!$M15/2+5*$B15/(24*TAN(phi/2))*1.05</f>
+        <v>27.148776066194845</v>
+      </c>
+      <c r="D15" s="76">
+        <f>'BSPP thread'!$M15+5*$B15/(12*TAN(phi/2))</f>
+        <v>54.20514488799018</v>
+      </c>
+      <c r="E15" s="68">
+        <f>'BSPP thread'!$M15/2+5*$B15/(24*TAN(phi/2))*1.05-C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G15" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I15" s="64">
+        <f>'BSPP thread'!$M15/2-$B15*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C15</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J15" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K15" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L15" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A16,"-int")</f>
+        <v>G2-int</v>
+      </c>
+      <c r="B16" s="68">
+        <f>'BSPP thread'!C16</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C16" s="101">
+        <f>'BSPP thread'!$M16/2+5*$B16/(24*TAN(phi/2))*1.05</f>
+        <v>30.082776066194842</v>
+      </c>
+      <c r="D16" s="76">
+        <f>'BSPP thread'!$M16+5*$B16/(12*TAN(phi/2))</f>
+        <v>60.073144887990175</v>
+      </c>
+      <c r="E16" s="68">
+        <f>'BSPP thread'!$M16/2+5*$B16/(24*TAN(phi/2))*1.05-C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G16" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I16" s="64">
+        <f>'BSPP thread'!$M16/2-$B16*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C16</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J16" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K16" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L16" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A17,"-int")</f>
+        <v>G2 1/4-int</v>
+      </c>
+      <c r="B17" s="68">
+        <f>'BSPP thread'!C17</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C17" s="101">
+        <f>'BSPP thread'!$M17/2+5*$B17/(24*TAN(phi/2))*1.05</f>
+        <v>33.140026066194842</v>
+      </c>
+      <c r="D17" s="76">
+        <f>'BSPP thread'!$M17+5*$B17/(12*TAN(phi/2))</f>
+        <v>66.187644887990174</v>
+      </c>
+      <c r="E17" s="68">
+        <f>'BSPP thread'!$M17/2+5*$B17/(24*TAN(phi/2))*1.05-C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G17" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I17" s="64">
+        <f>'BSPP thread'!$M17/2-$B17*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C17</f>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="J17" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919229</v>
+      </c>
+      <c r="L17" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A18,"-int")</f>
+        <v>G2 1/2-int</v>
+      </c>
+      <c r="B18" s="68">
+        <f>'BSPP thread'!C18</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C18" s="101">
+        <f>'BSPP thread'!$M18/2+5*$B18/(24*TAN(phi/2))*1.05</f>
+        <v>37.877026066194844</v>
+      </c>
+      <c r="D18" s="76">
+        <f>'BSPP thread'!$M18+5*$B18/(12*TAN(phi/2))</f>
+        <v>75.661644887990178</v>
+      </c>
+      <c r="E18" s="68">
+        <f>'BSPP thread'!$M18/2+5*$B18/(24*TAN(phi/2))*1.05-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G18" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I18" s="64">
+        <f>'BSPP thread'!$M18/2-$B18*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C18</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J18" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K18" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L18" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A19,"-int")</f>
+        <v>G2 3/4-int</v>
+      </c>
+      <c r="B19" s="68">
+        <f>'BSPP thread'!C19</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C19" s="101">
+        <f>'BSPP thread'!$M19/2+5*$B19/(24*TAN(phi/2))*1.05</f>
+        <v>41.052026066194848</v>
+      </c>
+      <c r="D19" s="76">
+        <f>'BSPP thread'!$M19+5*$B19/(12*TAN(phi/2))</f>
+        <v>82.011644887990187</v>
+      </c>
+      <c r="E19" s="68">
+        <f>'BSPP thread'!$M19/2+5*$B19/(24*TAN(phi/2))*1.05-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G19" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I19" s="64">
+        <f>'BSPP thread'!$M19/2-$B19*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C19</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J19" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K19" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L19" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A20,"-int")</f>
+        <v>G3-int</v>
+      </c>
+      <c r="B20" s="68">
+        <f>'BSPP thread'!C20</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C20" s="101">
+        <f>'BSPP thread'!$M20/2+5*$B20/(24*TAN(phi/2))*1.05</f>
+        <v>44.227026066194846</v>
+      </c>
+      <c r="D20" s="76">
+        <f>'BSPP thread'!$M20+5*$B20/(12*TAN(phi/2))</f>
+        <v>88.361644887990181</v>
+      </c>
+      <c r="E20" s="68">
+        <f>'BSPP thread'!$M20/2+5*$B20/(24*TAN(phi/2))*1.05-C20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G20" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I20" s="64">
+        <f>'BSPP thread'!$M20/2-$B20*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C20</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J20" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K20" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L20" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A21,"-int")</f>
+        <v>G3 1/2-int</v>
+      </c>
+      <c r="B21" s="68">
+        <f>'BSPP thread'!C21</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C21" s="101">
+        <f>'BSPP thread'!$M21/2+5*$B21/(24*TAN(phi/2))*1.05</f>
+        <v>50.450026066194845</v>
+      </c>
+      <c r="D21" s="76">
+        <f>'BSPP thread'!$M21+5*$B21/(12*TAN(phi/2))</f>
+        <v>100.80764488799018</v>
+      </c>
+      <c r="E21" s="68">
+        <f>'BSPP thread'!$M21/2+5*$B21/(24*TAN(phi/2))*1.05-C21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G21" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I21" s="64">
+        <f>'BSPP thread'!$M21/2-$B21*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C21</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K21" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L21" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A22,"-int")</f>
+        <v>G4-int</v>
+      </c>
+      <c r="B22" s="68">
+        <f>'BSPP thread'!C22</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C22" s="101">
+        <f>'BSPP thread'!$M22/2+5*$B22/(24*TAN(phi/2))*1.05</f>
+        <v>56.800026066194846</v>
+      </c>
+      <c r="D22" s="76">
+        <f>'BSPP thread'!$M22+5*$B22/(12*TAN(phi/2))</f>
+        <v>113.50764488799018</v>
+      </c>
+      <c r="E22" s="68">
+        <f>'BSPP thread'!$M22/2+5*$B22/(24*TAN(phi/2))*1.05-C22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G22" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I22" s="64">
+        <f>'BSPP thread'!$M22/2-$B22*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C22</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J22" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K22" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L22" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A23,"-int")</f>
+        <v>G4 1/2-int</v>
+      </c>
+      <c r="B23" s="68">
+        <f>'BSPP thread'!C23</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C23" s="101">
+        <f>'BSPP thread'!$M23/2+5*$B23/(24*TAN(phi/2))*1.05</f>
+        <v>63.150026066194847</v>
+      </c>
+      <c r="D23" s="76">
+        <f>'BSPP thread'!$M23+5*$B23/(12*TAN(phi/2))</f>
+        <v>126.20764488799018</v>
+      </c>
+      <c r="E23" s="68">
+        <f>'BSPP thread'!$M23/2+5*$B23/(24*TAN(phi/2))*1.05-C23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G23" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I23" s="64">
+        <f>'BSPP thread'!$M23/2-$B23*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C23</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J23" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K23" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L23" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A24,"-int")</f>
+        <v>G5-int</v>
+      </c>
+      <c r="B24" s="68">
+        <f>'BSPP thread'!C24</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C24" s="101">
+        <f>'BSPP thread'!$M24/2+5*$B24/(24*TAN(phi/2))*1.05</f>
+        <v>69.500026066194835</v>
+      </c>
+      <c r="D24" s="76">
+        <f>'BSPP thread'!$M24+5*$B24/(12*TAN(phi/2))</f>
+        <v>138.90764488799016</v>
+      </c>
+      <c r="E24" s="68">
+        <f>'BSPP thread'!$M24/2+5*$B24/(24*TAN(phi/2))*1.05-C24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G24" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I24" s="64">
+        <f>'BSPP thread'!$M24/2-$B24*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C24</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J24" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K24" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L24" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A25,"-int")</f>
+        <v>G5 1/2-int</v>
+      </c>
+      <c r="B25" s="68">
+        <f>'BSPP thread'!C25</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C25" s="101">
+        <f>'BSPP thread'!$M25/2+5*$B25/(24*TAN(phi/2))*1.05</f>
+        <v>75.850026066194843</v>
+      </c>
+      <c r="D25" s="76">
+        <f>'BSPP thread'!$M25+5*$B25/(12*TAN(phi/2))</f>
+        <v>151.60764488799018</v>
+      </c>
+      <c r="E25" s="68">
+        <f>'BSPP thread'!$M25/2+5*$B25/(24*TAN(phi/2))*1.05-C25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="64">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G25" s="64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="64">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I25" s="64">
+        <f>'BSPP thread'!$M25/2-$B25*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C25</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J25" s="64">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K25" s="64">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L25" s="69">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" thickBot="1">
+      <c r="A26" s="83" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A26,"-int")</f>
+        <v>G6-int</v>
+      </c>
+      <c r="B26" s="80">
+        <f>'BSPP thread'!C26</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C26" s="102">
+        <f>'BSPP thread'!$M26/2+5*$B26/(24*TAN(phi/2))*1.05</f>
+        <v>82.200026066194837</v>
+      </c>
+      <c r="D26" s="81">
+        <f>'BSPP thread'!$M26+5*$B26/(12*TAN(phi/2))</f>
+        <v>164.30764488799016</v>
+      </c>
+      <c r="E26" s="80">
+        <f>'BSPP thread'!$M26/2+5*$B26/(24*TAN(phi/2))*1.05-C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="82">
+        <f t="shared" si="0"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="G26" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="82">
+        <f t="shared" si="2"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="I26" s="82">
+        <f>'BSPP thread'!$M26/2-$B26*(cinternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C26</f>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="J26" s="82">
+        <f t="shared" si="3"/>
+        <v>-0.31635608999999998</v>
+      </c>
+      <c r="K26" s="82">
+        <f t="shared" si="4"/>
+        <v>-1.4277649468919265</v>
+      </c>
+      <c r="L26" s="84">
+        <f t="shared" si="5"/>
+        <v>0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="73" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A3,"-ext")</f>
+        <v>G1/16-ext</v>
+      </c>
+      <c r="B27" s="65">
+        <f>'BSPP thread'!C3</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C27" s="103">
+        <f>'BSPP thread'!$M3/2-5*$B27/(24*TAN(phi/2))*1.05</f>
+        <v>3.2166151398706271</v>
+      </c>
+      <c r="D27" s="88">
+        <f>'BSPP thread'!$M3-5*$B27/(12*TAN(phi/2))</f>
+        <v>6.4695288378488138</v>
+      </c>
+      <c r="E27" s="85">
+        <f>'BSPP thread'!$M3/2-5*$B27/(24*TAN(phi/2))*1.05-C27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <f>-0.46875*$B27</f>
+        <v>-0.42515625000000001</v>
+      </c>
+      <c r="G27" s="66">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="66">
+        <f t="shared" ref="H27" si="6">-F27</f>
+        <v>0.42515625000000001</v>
+      </c>
+      <c r="I27" s="66">
+        <f>'BSPP thread'!$M3/2+$B27*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C27</f>
+        <v>0.57800829101097984</v>
+      </c>
+      <c r="J27" s="66">
+        <f>0.13701*$B27</f>
+        <v>0.12426806999999999</v>
+      </c>
+      <c r="K27" s="66">
+        <f>I27</f>
+        <v>0.57800829101097984</v>
+      </c>
+      <c r="L27" s="67">
+        <f t="shared" ref="L27" si="7">-J27</f>
+        <v>-0.12426806999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A4,"-ext")</f>
+        <v>G1/8-ext</v>
+      </c>
+      <c r="B28" s="68">
+        <f>'BSPP thread'!C4</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C28" s="101">
+        <f>'BSPP thread'!$M4/2-5*$B28/(24*TAN(phi/2))*1.05</f>
+        <v>4.2191151398706275</v>
+      </c>
+      <c r="D28" s="69">
+        <f>'BSPP thread'!$M4-5*$B28/(12*TAN(phi/2))</f>
+        <v>8.4745288378488137</v>
+      </c>
+      <c r="E28" s="86">
+        <f>'BSPP thread'!$M4/2-5*$B28/(24*TAN(phi/2))*1.05-C28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="64">
+        <f t="shared" ref="F28:F50" si="8">-0.46875*$B28</f>
+        <v>-0.42515625000000001</v>
+      </c>
+      <c r="G28" s="64">
+        <f t="shared" ref="G28:G50" si="9">E28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="64">
+        <f t="shared" ref="H28:H50" si="10">-F28</f>
+        <v>0.42515625000000001</v>
+      </c>
+      <c r="I28" s="64">
+        <f>'BSPP thread'!$M4/2+$B28*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C28</f>
+        <v>0.57800829101097939</v>
+      </c>
+      <c r="J28" s="64">
+        <f t="shared" ref="J28:J50" si="11">0.13701*$B28</f>
+        <v>0.12426806999999999</v>
+      </c>
+      <c r="K28" s="64">
+        <f t="shared" ref="K28:K50" si="12">I28</f>
+        <v>0.57800829101097939</v>
+      </c>
+      <c r="L28" s="69">
+        <f t="shared" ref="L28:L50" si="13">-J28</f>
+        <v>-0.12426806999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A5,"-ext")</f>
+        <v>G1/4-ext</v>
+      </c>
+      <c r="B29" s="68">
+        <f>'BSPP thread'!C5</f>
+        <v>1.337</v>
+      </c>
+      <c r="C29" s="101">
+        <f>'BSPP thread'!$M5/2-5*$B29/(24*TAN(phi/2))*1.05</f>
+        <v>5.6199227585524021</v>
+      </c>
+      <c r="D29" s="69">
+        <f>'BSPP thread'!$M5-5*$B29/(12*TAN(phi/2))</f>
+        <v>11.293352873433147</v>
+      </c>
+      <c r="E29" s="86">
+        <f>'BSPP thread'!$M5/2-5*$B29/(24*TAN(phi/2))*1.05-C29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.62671874999999999</v>
+      </c>
+      <c r="G29" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="64">
+        <f t="shared" si="10"/>
+        <v>0.62671874999999999</v>
+      </c>
+      <c r="I29" s="64">
+        <f>'BSPP thread'!$M5/2+$B29*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C29</f>
+        <v>0.85203647748807043</v>
+      </c>
+      <c r="J29" s="64">
+        <f t="shared" si="11"/>
+        <v>0.18318236999999998</v>
+      </c>
+      <c r="K29" s="64">
+        <f t="shared" si="12"/>
+        <v>0.85203647748807043</v>
+      </c>
+      <c r="L29" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.18318236999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A6,"-ext")</f>
+        <v>G3/8-ext</v>
+      </c>
+      <c r="B30" s="68">
+        <f>'BSPP thread'!C6</f>
+        <v>1.337</v>
+      </c>
+      <c r="C30" s="101">
+        <f>'BSPP thread'!$M6/2-5*$B30/(24*TAN(phi/2))*1.05</f>
+        <v>7.3724227585524016</v>
+      </c>
+      <c r="D30" s="69">
+        <f>'BSPP thread'!$M6-5*$B30/(12*TAN(phi/2))</f>
+        <v>14.798352873433146</v>
+      </c>
+      <c r="E30" s="86">
+        <f>'BSPP thread'!$M6/2-5*$B30/(24*TAN(phi/2))*1.05-C30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.62671874999999999</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="10"/>
+        <v>0.62671874999999999</v>
+      </c>
+      <c r="I30" s="64">
+        <f>'BSPP thread'!$M6/2+$B30*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C30</f>
+        <v>0.85203647748807043</v>
+      </c>
+      <c r="J30" s="64">
+        <f t="shared" si="11"/>
+        <v>0.18318236999999998</v>
+      </c>
+      <c r="K30" s="64">
+        <f t="shared" si="12"/>
+        <v>0.85203647748807043</v>
+      </c>
+      <c r="L30" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.18318236999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A7,"-ext")</f>
+        <v>G1/2-ext</v>
+      </c>
+      <c r="B31" s="68">
+        <f>'BSPP thread'!C7</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C31" s="101">
+        <f>'BSPP thread'!$M7/2-5*$B31/(24*TAN(phi/2))*1.05</f>
+        <v>9.1697302797412554</v>
+      </c>
+      <c r="D31" s="69">
+        <f>'BSPP thread'!$M7-5*$B31/(12*TAN(phi/2))</f>
+        <v>18.412057675697628</v>
+      </c>
+      <c r="E31" s="86">
+        <f>'BSPP thread'!$M7/2-5*$B31/(24*TAN(phi/2))*1.05-C31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="10"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="I31" s="64">
+        <f>'BSPP thread'!$M7/2+$B31*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C31</f>
+        <v>1.1560165820219588</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" si="11"/>
+        <v>0.24853613999999999</v>
+      </c>
+      <c r="K31" s="64">
+        <f t="shared" si="12"/>
+        <v>1.1560165820219588</v>
+      </c>
+      <c r="L31" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A8,"-ext")</f>
+        <v>G5/8-ext</v>
+      </c>
+      <c r="B32" s="68">
+        <f>'BSPP thread'!C8</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C32" s="101">
+        <f>'BSPP thread'!$M8/2-5*$B32/(24*TAN(phi/2))*1.05</f>
+        <v>10.147730279741253</v>
+      </c>
+      <c r="D32" s="69">
+        <f>'BSPP thread'!$M8-5*$B32/(12*TAN(phi/2))</f>
+        <v>20.368057675697628</v>
+      </c>
+      <c r="E32" s="86">
+        <f>'BSPP thread'!$M8/2-5*$B32/(24*TAN(phi/2))*1.05-C32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="G32" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="64">
+        <f t="shared" si="10"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="I32" s="64">
+        <f>'BSPP thread'!$M8/2+$B32*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C32</f>
+        <v>1.1560165820219606</v>
+      </c>
+      <c r="J32" s="64">
+        <f t="shared" si="11"/>
+        <v>0.24853613999999999</v>
+      </c>
+      <c r="K32" s="64">
+        <f t="shared" si="12"/>
+        <v>1.1560165820219606</v>
+      </c>
+      <c r="L32" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A9,"-ext")</f>
+        <v>G3/4-ext</v>
+      </c>
+      <c r="B33" s="68">
+        <f>'BSPP thread'!C9</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C33" s="101">
+        <f>'BSPP thread'!$M9/2-5*$B33/(24*TAN(phi/2))*1.05</f>
+        <v>11.912730279741254</v>
+      </c>
+      <c r="D33" s="69">
+        <f>'BSPP thread'!$M9-5*$B33/(12*TAN(phi/2))</f>
+        <v>23.898057675697629</v>
+      </c>
+      <c r="E33" s="86">
+        <f>'BSPP thread'!$M9/2-5*$B33/(24*TAN(phi/2))*1.05-C33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="G33" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="64">
+        <f t="shared" si="10"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="I33" s="64">
+        <f>'BSPP thread'!$M9/2+$B33*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C33</f>
+        <v>1.1560165820219606</v>
+      </c>
+      <c r="J33" s="64">
+        <f t="shared" si="11"/>
+        <v>0.24853613999999999</v>
+      </c>
+      <c r="K33" s="64">
+        <f t="shared" si="12"/>
+        <v>1.1560165820219606</v>
+      </c>
+      <c r="L33" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A10,"-ext")</f>
+        <v>G7/8-ext</v>
+      </c>
+      <c r="B34" s="68">
+        <f>'BSPP thread'!C10</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="C34" s="101">
+        <f>'BSPP thread'!$M10/2-5*$B34/(24*TAN(phi/2))*1.05</f>
+        <v>13.792730279741257</v>
+      </c>
+      <c r="D34" s="69">
+        <f>'BSPP thread'!$M10-5*$B34/(12*TAN(phi/2))</f>
+        <v>27.658057675697631</v>
+      </c>
+      <c r="E34" s="86">
+        <f>'BSPP thread'!$M10/2-5*$B34/(24*TAN(phi/2))*1.05-C34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="64">
+        <f t="shared" si="8"/>
+        <v>-0.85031250000000003</v>
+      </c>
+      <c r="G34" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="64">
+        <f t="shared" si="10"/>
+        <v>0.85031250000000003</v>
+      </c>
+      <c r="I34" s="64">
+        <f>'BSPP thread'!$M10/2+$B34*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C34</f>
+        <v>1.1560165820219588</v>
+      </c>
+      <c r="J34" s="64">
+        <f t="shared" si="11"/>
+        <v>0.24853613999999999</v>
+      </c>
+      <c r="K34" s="64">
+        <f t="shared" si="12"/>
+        <v>1.1560165820219588</v>
+      </c>
+      <c r="L34" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.24853613999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A11,"-ext")</f>
+        <v>G1-ext</v>
+      </c>
+      <c r="B35" s="68">
+        <f>'BSPP thread'!C11</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C35" s="101">
+        <f>'BSPP thread'!$M11/2-5*$B35/(24*TAN(phi/2))*1.05</f>
+        <v>14.959723933805158</v>
+      </c>
+      <c r="D35" s="69">
+        <f>'BSPP thread'!$M11-5*$B35/(12*TAN(phi/2))</f>
+        <v>30.011855112009822</v>
+      </c>
+      <c r="E35" s="86">
+        <f>'BSPP thread'!$M11/2-5*$B35/(24*TAN(phi/2))*1.05-C35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G35" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I35" s="64">
+        <f>'BSPP thread'!$M11/2+$B35*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C35</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J35" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K35" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L35" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A12,"-ext")</f>
+        <v>G1 1/8-ext</v>
+      </c>
+      <c r="B36" s="68">
+        <f>'BSPP thread'!C12</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C36" s="101">
+        <f>'BSPP thread'!$M12/2-5*$B36/(24*TAN(phi/2))*1.05</f>
+        <v>17.28372393380516</v>
+      </c>
+      <c r="D36" s="69">
+        <f>'BSPP thread'!$M12-5*$B36/(12*TAN(phi/2))</f>
+        <v>34.659855112009829</v>
+      </c>
+      <c r="E36" s="86">
+        <f>'BSPP thread'!$M12/2-5*$B36/(24*TAN(phi/2))*1.05-C36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G36" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I36" s="64">
+        <f>'BSPP thread'!$M12/2+$B36*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C36</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J36" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K36" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L36" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A13,"-ext")</f>
+        <v>G1 1/4-ext</v>
+      </c>
+      <c r="B37" s="68">
+        <f>'BSPP thread'!C13</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C37" s="101">
+        <f>'BSPP thread'!$M13/2-5*$B37/(24*TAN(phi/2))*1.05</f>
+        <v>19.290223933805159</v>
+      </c>
+      <c r="D37" s="69">
+        <f>'BSPP thread'!$M13-5*$B37/(12*TAN(phi/2))</f>
+        <v>38.672855112009827</v>
+      </c>
+      <c r="E37" s="86">
+        <f>'BSPP thread'!$M13/2-5*$B37/(24*TAN(phi/2))*1.05-C37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G37" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I37" s="64">
+        <f>'BSPP thread'!$M13/2+$B37*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C37</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J37" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K37" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L37" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A14,"-ext")</f>
+        <v>G1 1/2-ext</v>
+      </c>
+      <c r="B38" s="68">
+        <f>'BSPP thread'!C14</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C38" s="101">
+        <f>'BSPP thread'!$M14/2-5*$B38/(24*TAN(phi/2))*1.05</f>
+        <v>22.236723933805159</v>
+      </c>
+      <c r="D38" s="69">
+        <f>'BSPP thread'!$M14-5*$B38/(12*TAN(phi/2))</f>
+        <v>44.565855112009828</v>
+      </c>
+      <c r="E38" s="86">
+        <f>'BSPP thread'!$M14/2-5*$B38/(24*TAN(phi/2))*1.05-C38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G38" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I38" s="64">
+        <f>'BSPP thread'!$M14/2+$B38*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C38</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J38" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K38" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L38" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A15,"-ext")</f>
+        <v>G1 3/4-ext</v>
+      </c>
+      <c r="B39" s="68">
+        <f>'BSPP thread'!C15</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C39" s="101">
+        <f>'BSPP thread'!$M15/2-5*$B39/(24*TAN(phi/2))*1.05</f>
+        <v>25.208223933805161</v>
+      </c>
+      <c r="D39" s="69">
+        <f>'BSPP thread'!$M15-5*$B39/(12*TAN(phi/2))</f>
+        <v>50.508855112009833</v>
+      </c>
+      <c r="E39" s="86">
+        <f>'BSPP thread'!$M15/2-5*$B39/(24*TAN(phi/2))*1.05-C39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G39" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I39" s="64">
+        <f>'BSPP thread'!$M15/2+$B39*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C39</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J39" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K39" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L39" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A16,"-ext")</f>
+        <v>G2-ext</v>
+      </c>
+      <c r="B40" s="68">
+        <f>'BSPP thread'!C16</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C40" s="101">
+        <f>'BSPP thread'!$M16/2-5*$B40/(24*TAN(phi/2))*1.05</f>
+        <v>28.142223933805159</v>
+      </c>
+      <c r="D40" s="69">
+        <f>'BSPP thread'!$M16-5*$B40/(12*TAN(phi/2))</f>
+        <v>56.376855112009828</v>
+      </c>
+      <c r="E40" s="86">
+        <f>'BSPP thread'!$M16/2-5*$B40/(24*TAN(phi/2))*1.05-C40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G40" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I40" s="64">
+        <f>'BSPP thread'!$M16/2+$B40*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C40</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J40" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K40" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L40" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A17,"-ext")</f>
+        <v>G2 1/4-ext</v>
+      </c>
+      <c r="B41" s="68">
+        <f>'BSPP thread'!C17</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C41" s="101">
+        <f>'BSPP thread'!$M17/2-5*$B41/(24*TAN(phi/2))*1.05</f>
+        <v>31.199473933805159</v>
+      </c>
+      <c r="D41" s="69">
+        <f>'BSPP thread'!$M17-5*$B41/(12*TAN(phi/2))</f>
+        <v>62.491355112009828</v>
+      </c>
+      <c r="E41" s="86">
+        <f>'BSPP thread'!$M17/2-5*$B41/(24*TAN(phi/2))*1.05-C41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G41" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I41" s="64">
+        <f>'BSPP thread'!$M17/2+$B41*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C41</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J41" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K41" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L41" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A18,"-ext")</f>
+        <v>G2 1/2-ext</v>
+      </c>
+      <c r="B42" s="68">
+        <f>'BSPP thread'!C18</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C42" s="101">
+        <f>'BSPP thread'!$M18/2-5*$B42/(24*TAN(phi/2))*1.05</f>
+        <v>35.936473933805161</v>
+      </c>
+      <c r="D42" s="69">
+        <f>'BSPP thread'!$M18-5*$B42/(12*TAN(phi/2))</f>
+        <v>71.965355112009831</v>
+      </c>
+      <c r="E42" s="86">
+        <f>'BSPP thread'!$M18/2-5*$B42/(24*TAN(phi/2))*1.05-C42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G42" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I42" s="64">
+        <f>'BSPP thread'!$M18/2+$B42*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C42</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J42" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K42" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L42" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A19,"-ext")</f>
+        <v>G2 3/4-ext</v>
+      </c>
+      <c r="B43" s="68">
+        <f>'BSPP thread'!C19</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C43" s="101">
+        <f>'BSPP thread'!$M19/2-5*$B43/(24*TAN(phi/2))*1.05</f>
+        <v>39.111473933805165</v>
+      </c>
+      <c r="D43" s="69">
+        <f>'BSPP thread'!$M19-5*$B43/(12*TAN(phi/2))</f>
+        <v>78.31535511200984</v>
+      </c>
+      <c r="E43" s="86">
+        <f>'BSPP thread'!$M19/2-5*$B43/(24*TAN(phi/2))*1.05-C43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G43" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I43" s="64">
+        <f>'BSPP thread'!$M19/2+$B43*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C43</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J43" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K43" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L43" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A20,"-ext")</f>
+        <v>G3-ext</v>
+      </c>
+      <c r="B44" s="68">
+        <f>'BSPP thread'!C20</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C44" s="101">
+        <f>'BSPP thread'!$M20/2-5*$B44/(24*TAN(phi/2))*1.05</f>
+        <v>42.286473933805162</v>
+      </c>
+      <c r="D44" s="69">
+        <f>'BSPP thread'!$M20-5*$B44/(12*TAN(phi/2))</f>
+        <v>84.665355112009834</v>
+      </c>
+      <c r="E44" s="86">
+        <f>'BSPP thread'!$M20/2-5*$B44/(24*TAN(phi/2))*1.05-C44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G44" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I44" s="64">
+        <f>'BSPP thread'!$M20/2+$B44*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C44</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J44" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K44" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L44" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A21,"-ext")</f>
+        <v>G3 1/2-ext</v>
+      </c>
+      <c r="B45" s="68">
+        <f>'BSPP thread'!C21</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C45" s="101">
+        <f>'BSPP thread'!$M21/2-5*$B45/(24*TAN(phi/2))*1.05</f>
+        <v>48.509473933805161</v>
+      </c>
+      <c r="D45" s="69">
+        <f>'BSPP thread'!$M21-5*$B45/(12*TAN(phi/2))</f>
+        <v>97.111355112009832</v>
+      </c>
+      <c r="E45" s="86">
+        <f>'BSPP thread'!$M21/2-5*$B45/(24*TAN(phi/2))*1.05-C45</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G45" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I45" s="64">
+        <f>'BSPP thread'!$M21/2+$B45*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C45</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J45" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K45" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L45" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A22,"-ext")</f>
+        <v>G4-ext</v>
+      </c>
+      <c r="B46" s="68">
+        <f>'BSPP thread'!C22</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C46" s="101">
+        <f>'BSPP thread'!$M22/2-5*$B46/(24*TAN(phi/2))*1.05</f>
+        <v>54.859473933805162</v>
+      </c>
+      <c r="D46" s="69">
+        <f>'BSPP thread'!$M22-5*$B46/(12*TAN(phi/2))</f>
+        <v>109.81135511200984</v>
+      </c>
+      <c r="E46" s="86">
+        <f>'BSPP thread'!$M22/2-5*$B46/(24*TAN(phi/2))*1.05-C46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G46" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I46" s="64">
+        <f>'BSPP thread'!$M22/2+$B46*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C46</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J46" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K46" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L46" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A23,"-ext")</f>
+        <v>G4 1/2-ext</v>
+      </c>
+      <c r="B47" s="68">
+        <f>'BSPP thread'!C23</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C47" s="101">
+        <f>'BSPP thread'!$M23/2-5*$B47/(24*TAN(phi/2))*1.05</f>
+        <v>61.209473933805164</v>
+      </c>
+      <c r="D47" s="69">
+        <f>'BSPP thread'!$M23-5*$B47/(12*TAN(phi/2))</f>
+        <v>122.51135511200984</v>
+      </c>
+      <c r="E47" s="86">
+        <f>'BSPP thread'!$M23/2-5*$B47/(24*TAN(phi/2))*1.05-C47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G47" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I47" s="64">
+        <f>'BSPP thread'!$M23/2+$B47*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C47</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K47" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L47" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A24,"-ext")</f>
+        <v>G5-ext</v>
+      </c>
+      <c r="B48" s="68">
+        <f>'BSPP thread'!C24</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C48" s="101">
+        <f>'BSPP thread'!$M24/2-5*$B48/(24*TAN(phi/2))*1.05</f>
+        <v>67.559473933805151</v>
+      </c>
+      <c r="D48" s="69">
+        <f>'BSPP thread'!$M24-5*$B48/(12*TAN(phi/2))</f>
+        <v>135.21135511200981</v>
+      </c>
+      <c r="E48" s="86">
+        <f>'BSPP thread'!$M24/2-5*$B48/(24*TAN(phi/2))*1.05-C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G48" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I48" s="64">
+        <f>'BSPP thread'!$M24/2+$B48*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C48</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J48" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K48" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L48" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="74" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A25,"-ext")</f>
+        <v>G5 1/2-ext</v>
+      </c>
+      <c r="B49" s="68">
+        <f>'BSPP thread'!C25</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C49" s="101">
+        <f>'BSPP thread'!$M25/2-5*$B49/(24*TAN(phi/2))*1.05</f>
+        <v>73.90947393380516</v>
+      </c>
+      <c r="D49" s="69">
+        <f>'BSPP thread'!$M25-5*$B49/(12*TAN(phi/2))</f>
+        <v>147.91135511200983</v>
+      </c>
+      <c r="E49" s="86">
+        <f>'BSPP thread'!$M25/2-5*$B49/(24*TAN(phi/2))*1.05-C49</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="64">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G49" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="64">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I49" s="64">
+        <f>'BSPP thread'!$M25/2+$B49*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C49</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J49" s="64">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K49" s="64">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L49" s="69">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17" thickBot="1">
+      <c r="A50" s="75" t="str">
+        <f>_xlfn.CONCAT("G",'BSPP thread'!A26,"-ext")</f>
+        <v>G6-ext</v>
+      </c>
+      <c r="B50" s="70">
+        <f>'BSPP thread'!C26</f>
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C50" s="104">
+        <f>'BSPP thread'!$M26/2-5*$B50/(24*TAN(phi/2))*1.05</f>
+        <v>80.259473933805154</v>
+      </c>
+      <c r="D50" s="72">
+        <f>'BSPP thread'!$M26-5*$B50/(12*TAN(phi/2))</f>
+        <v>160.61135511200982</v>
+      </c>
+      <c r="E50" s="87">
+        <f>'BSPP thread'!$M26/2-5*$B50/(24*TAN(phi/2))*1.05-C50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="71">
+        <f t="shared" si="8"/>
+        <v>-1.0823437500000002</v>
+      </c>
+      <c r="G50" s="71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="71">
+        <f t="shared" si="10"/>
+        <v>1.0823437500000002</v>
+      </c>
+      <c r="I50" s="71">
+        <f>'BSPP thread'!$M26/2+$B50*(cexternal-TAN((PI()+phi)/4)/12*(1-SIN(phi/2)))-C50</f>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="J50" s="71">
+        <f t="shared" si="11"/>
+        <v>0.31635608999999998</v>
+      </c>
+      <c r="K50" s="71">
+        <f t="shared" si="12"/>
+        <v>1.4714676338967507</v>
+      </c>
+      <c r="L50" s="72">
+        <f t="shared" si="13"/>
+        <v>-0.31635608999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4879EFB4-BDC1-B447-A377-45693BA5A02A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
